--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavanaj Biyani\Documents\CSE1325-HW6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik Gupta\Documents\CSE-1325-HW-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>Product Name:</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Planning</t>
+  </si>
+  <si>
+    <t>Kartik Gupta</t>
+  </si>
+  <si>
+    <t>KG</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1279,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1308,7 +1320,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1625,25 +1643,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6328125"/>
-    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="34"/>
+    <col min="1" max="1" width="13.6640625"/>
+    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="34"/>
     <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="14.08984375" style="1"/>
-    <col min="6" max="6" width="8.1796875"/>
-    <col min="7" max="7" width="40.6328125"/>
-    <col min="8" max="8" width="41.54296875"/>
-    <col min="9" max="9" width="80.26953125"/>
-    <col min="10" max="1025" width="11.54296875"/>
+    <col min="5" max="5" width="14.109375" style="1"/>
+    <col min="6" max="6" width="8.21875"/>
+    <col min="7" max="7" width="40.6640625"/>
+    <col min="8" max="8" width="41.5546875"/>
+    <col min="9" max="9" width="80.21875"/>
+    <col min="10" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1675,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1671,7 +1689,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="33"/>
@@ -1681,7 +1699,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1695,7 +1713,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1709,7 +1727,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1741,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="33"/>
@@ -1733,7 +1751,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1745,11 +1763,13 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C9" s="33"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
@@ -1757,11 +1777,13 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="C10" s="33"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
@@ -1769,11 +1791,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3">
+        <v>1001228675</v>
+      </c>
       <c r="C11" s="33"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
@@ -1781,7 +1805,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="33"/>
@@ -1791,7 +1815,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1803,7 +1827,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1839,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1827,7 +1851,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="33"/>
@@ -1837,7 +1861,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1849,7 +1873,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1861,7 +1885,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1897,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="33"/>
@@ -1883,7 +1907,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1902,7 +1926,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1921,7 +1945,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1941,7 +1965,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1961,7 +1985,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1981,7 +2005,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2001,7 +2025,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2021,7 +2045,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2041,7 +2065,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2060,7 +2084,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30" s="3"/>
       <c r="C30" s="33"/>
@@ -2070,7 +2094,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31" s="3"/>
       <c r="C31" s="33"/>
@@ -2082,7 +2106,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="33"/>
@@ -2094,7 +2118,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2193,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>7</v>
       </c>
@@ -2453,7 +2477,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" s="15" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>16</v>
       </c>
@@ -2474,7 +2498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -2500,7 +2524,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -2521,7 +2545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
         <v>18</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>22</v>
       </c>
@@ -2639,7 +2663,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
         <v>26</v>
       </c>
@@ -2896,7 +2920,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>36</v>
       </c>
@@ -2931,23 +2955,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125"/>
-    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875"/>
-    <col min="4" max="4" width="12.26953125"/>
-    <col min="5" max="5" width="51.81640625"/>
-    <col min="6" max="6" width="11.54296875"/>
-    <col min="7" max="7" width="51.81640625"/>
-    <col min="8" max="1024" width="11.54296875"/>
+    <col min="1" max="1" width="10.21875"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875"/>
+    <col min="4" max="4" width="12.21875"/>
+    <col min="5" max="5" width="51.77734375"/>
+    <col min="6" max="6" width="11.5546875"/>
+    <col min="7" max="7" width="51.77734375"/>
+    <col min="8" max="1024" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2962,7 +2986,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -2975,7 +2999,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -2988,7 +3012,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
@@ -3001,7 +3025,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="30"/>
       <c r="C5" s="2"/>
@@ -3010,7 +3034,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>135</v>
       </c>
@@ -3023,12 +3047,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B7" s="31">
-        <f t="shared" ref="B7:B13" si="0">B6</f>
+        <f t="shared" ref="B7:B11" si="0">B6</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -3037,7 +3061,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -3051,7 +3075,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -3065,7 +3089,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -3079,7 +3103,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -3093,7 +3117,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -3106,7 +3130,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
@@ -3119,7 +3143,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3128,7 +3152,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>143</v>
       </c>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik Gupta\Documents\CSE-1325-HW-6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwets_sms\Documents\CSE-1325-hw6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="627"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="627" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
   <si>
     <t>Product Name:</t>
   </si>
@@ -490,12 +490,18 @@
   </si>
   <si>
     <t>KG</t>
+  </si>
+  <si>
+    <t>Shweta Shikarkhane</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
@@ -775,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -799,6 +805,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -836,7 +843,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -879,7 +886,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE71-4E82-BE9A-4B49D752807B}"/>
             </c:ext>
@@ -894,11 +901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="25984586"/>
-        <c:axId val="67211722"/>
+        <c:axId val="255088640"/>
+        <c:axId val="255090992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25984586"/>
+        <c:axId val="255088640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -922,6 +929,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -934,7 +942,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67211722"/>
+        <c:crossAx val="255090992"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -942,7 +950,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67211722"/>
+        <c:axId val="255090992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -975,6 +983,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -988,7 +997,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="25984586"/>
+        <c:crossAx val="255088640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +1031,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1046,6 +1055,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1083,7 +1093,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1091,7 +1101,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint NN Backlog'!$B$7:$B$13</c:f>
+              <c:f>'Sprint 4 Backlog'!$B$7:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1120,7 +1130,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE49-4C5B-90BC-2152AD412007}"/>
             </c:ext>
@@ -1135,11 +1145,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="71626184"/>
-        <c:axId val="77322397"/>
+        <c:axId val="255088248"/>
+        <c:axId val="255089032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71626184"/>
+        <c:axId val="255088248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,6 +1173,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1175,7 +1186,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="77322397"/>
+        <c:crossAx val="255089032"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1183,7 +1194,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77322397"/>
+        <c:axId val="255089032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,6 +1227,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1229,7 +1241,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71626184"/>
+        <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1282,7 +1294,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1335,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,14 +1655,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6640625"/>
-    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" style="34"/>
     <col min="4" max="4" width="11"/>
     <col min="5" max="5" width="14.109375" style="1"/>
@@ -1819,7 +1831,9 @@
       <c r="A13" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C13" s="33"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
@@ -1831,7 +1845,9 @@
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="C14" s="33"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
@@ -1843,7 +1859,9 @@
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3">
+        <v>1001192846</v>
+      </c>
       <c r="C15" s="33"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
@@ -2955,14 +2973,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.21875"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875"/>
     <col min="4" max="4" width="12.21875"/>
     <col min="5" max="5" width="51.77734375"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shwets_sms\Documents\CSE-1325-hw6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavanaj Biyani\Documents\CSE1325-HW6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6948" tabRatio="627" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
@@ -781,7 +781,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -805,7 +805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -843,7 +842,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -886,7 +885,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FE71-4E82-BE9A-4B49D752807B}"/>
             </c:ext>
@@ -929,7 +928,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -983,7 +981,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1031,7 +1028,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1055,7 +1052,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1093,7 +1089,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="0"/>
               </c:ext>
@@ -1130,7 +1126,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE49-4C5B-90BC-2152AD412007}"/>
             </c:ext>
@@ -1173,7 +1169,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -1227,7 +1222,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="1"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1294,7 +1288,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1329,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1655,25 +1649,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625"/>
+    <col min="1" max="1" width="13.6328125"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="34"/>
+    <col min="3" max="3" width="10.90625" style="34"/>
     <col min="4" max="4" width="11"/>
-    <col min="5" max="5" width="14.109375" style="1"/>
-    <col min="6" max="6" width="8.21875"/>
-    <col min="7" max="7" width="40.6640625"/>
-    <col min="8" max="8" width="41.5546875"/>
-    <col min="9" max="9" width="80.21875"/>
-    <col min="10" max="1025" width="11.5546875"/>
+    <col min="5" max="5" width="14.08984375" style="1"/>
+    <col min="6" max="6" width="8.1796875"/>
+    <col min="7" max="7" width="40.6328125"/>
+    <col min="8" max="8" width="41.54296875"/>
+    <col min="9" max="9" width="80.1796875"/>
+    <col min="10" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1681,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1701,7 +1695,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="33"/>
@@ -1711,7 +1705,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1725,7 +1719,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1739,7 +1733,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1753,7 +1747,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="33"/>
@@ -1763,7 +1757,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1775,7 +1769,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1789,7 +1783,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1803,7 +1797,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1811,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="33"/>
@@ -1827,7 +1821,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1841,7 +1835,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1855,7 +1849,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1869,7 +1863,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="33"/>
@@ -1879,7 +1873,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1891,7 +1885,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +1897,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1909,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="33"/>
@@ -1925,7 +1919,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1944,7 +1938,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1963,7 +1957,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1983,7 +1977,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2003,7 +1997,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2023,7 +2017,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +2037,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2063,7 +2057,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -2083,7 +2077,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -2102,7 +2096,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="3"/>
       <c r="C30" s="33"/>
@@ -2112,7 +2106,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31" s="3"/>
       <c r="C31" s="33"/>
@@ -2124,7 +2118,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="33"/>
@@ -2136,7 +2130,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -2303,7 +2297,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>7</v>
       </c>
@@ -2495,7 +2489,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="15" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>16</v>
       </c>
@@ -2516,7 +2510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -2542,7 +2536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="18" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -2563,7 +2557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -2584,7 +2578,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B53" s="25">
         <v>18</v>
       </c>
@@ -2634,7 +2628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>22</v>
       </c>
@@ -2681,7 +2675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="B59" s="25">
         <v>26</v>
       </c>
@@ -2938,7 +2932,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="25" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>36</v>
       </c>
@@ -2973,23 +2967,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.21875"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875"/>
-    <col min="4" max="4" width="12.21875"/>
-    <col min="5" max="5" width="51.77734375"/>
-    <col min="6" max="6" width="11.5546875"/>
-    <col min="7" max="7" width="51.77734375"/>
-    <col min="8" max="1024" width="11.5546875"/>
+    <col min="1" max="1" width="10.1796875"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875"/>
+    <col min="4" max="4" width="12.1796875"/>
+    <col min="5" max="5" width="51.81640625"/>
+    <col min="6" max="6" width="11.54296875"/>
+    <col min="7" max="7" width="51.81640625"/>
+    <col min="8" max="1024" width="11.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3004,7 +2998,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>132</v>
       </c>
@@ -3017,7 +3011,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>133</v>
       </c>
@@ -3030,7 +3024,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>134</v>
       </c>
@@ -3043,7 +3037,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="30"/>
       <c r="C5" s="2"/>
@@ -3052,7 +3046,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>135</v>
       </c>
@@ -3065,7 +3059,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>136</v>
       </c>
@@ -3079,7 +3073,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>137</v>
       </c>
@@ -3093,7 +3087,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>138</v>
       </c>
@@ -3107,7 +3101,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>139</v>
       </c>
@@ -3121,7 +3115,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>140</v>
       </c>
@@ -3135,7 +3129,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>141</v>
       </c>
@@ -3148,7 +3142,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>142</v>
       </c>
@@ -3161,7 +3155,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -3170,7 +3164,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>143</v>
       </c>
@@ -3193,7 +3187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>153</v>
       </c>
@@ -3207,7 +3201,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" ht="13.25" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>151</v>
       </c>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 5 Backlog" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
   <si>
     <t>Product Name:</t>
   </si>
@@ -496,6 +497,36 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>Winston Starling</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>PB &amp; SS</t>
+  </si>
+  <si>
+    <t>Created the main GUI window</t>
+  </si>
+  <si>
+    <t>Made changes to read and write functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring GUI.cpp </t>
+  </si>
+  <si>
+    <t>Updated Scrum spreadsheet</t>
+  </si>
+  <si>
+    <t>Fixed bugs</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1268,6 +1299,1053 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29982548275026261"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10774312569012416"/>
+          <c:y val="0.11561695365304149"/>
+          <c:w val="0.85463332525383107"/>
+          <c:h val="0.81347360798197621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5 Backlog'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F33-4E74-8C44-401772E77C7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255088248"/>
+        <c:axId val="255089032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255088248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255089032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255089032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255088248"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1334,6 +2412,45 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst/>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1649,8 +2766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1877,7 +2994,9 @@
       <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C17" s="33"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
@@ -1889,7 +3008,9 @@
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="C18" s="33"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1901,7 +3022,9 @@
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3">
+        <v>1001346251</v>
+      </c>
       <c r="C19" s="33"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -2160,9 +3283,18 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
+      <c r="C34" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
@@ -2180,6 +3312,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>2</v>
+      </c>
       <c r="B35" s="13">
         <v>2</v>
       </c>
@@ -2206,6 +3341,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -2226,6 +3364,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
       <c r="B37" s="13">
         <v>4</v>
       </c>
@@ -2252,6 +3393,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>5</v>
+      </c>
       <c r="B38" s="1">
         <v>5</v>
       </c>
@@ -2272,6 +3416,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
       <c r="B39" s="13">
         <v>6</v>
       </c>
@@ -2298,6 +3445,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
       <c r="B40" s="1">
         <v>7</v>
       </c>
@@ -2318,6 +3468,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>8</v>
+      </c>
       <c r="B41" s="1">
         <v>8</v>
       </c>
@@ -2338,6 +3491,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
       <c r="B42" s="13">
         <v>9</v>
       </c>
@@ -2364,6 +3520,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>10</v>
+      </c>
       <c r="B43" s="1">
         <v>10</v>
       </c>
@@ -2384,6 +3543,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
+        <v>11</v>
+      </c>
       <c r="B44" s="1">
         <v>11</v>
       </c>
@@ -2404,6 +3566,9 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
       <c r="B45" s="1">
         <v>12</v>
       </c>
@@ -2422,6 +3587,9 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>13</v>
+      </c>
       <c r="B46" s="1">
         <v>13</v>
       </c>
@@ -2448,6 +3616,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>14</v>
+      </c>
       <c r="B47" s="1">
         <v>14</v>
       </c>
@@ -2469,6 +3640,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>15</v>
+      </c>
       <c r="B48" s="1">
         <v>15</v>
       </c>
@@ -2489,7 +3663,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>16</v>
+      </c>
       <c r="B49" s="1">
         <v>16</v>
       </c>
@@ -2510,7 +3687,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>17</v>
+      </c>
       <c r="B50" s="16">
         <v>23</v>
       </c>
@@ -2536,7 +3716,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>18</v>
+      </c>
       <c r="B51" s="16">
         <v>24</v>
       </c>
@@ -2557,7 +3740,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>19</v>
+      </c>
       <c r="B52" s="25">
         <v>17</v>
       </c>
@@ -2578,7 +3764,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>20</v>
+      </c>
       <c r="B53" s="25">
         <v>18</v>
       </c>
@@ -2599,10 +3788,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>21</v>
+      </c>
       <c r="E54"/>
     </row>
-    <row r="56" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>23</v>
+      </c>
       <c r="B56" s="1">
         <v>21</v>
       </c>
@@ -2628,7 +3828,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
       <c r="B57" s="1">
         <v>22</v>
       </c>
@@ -2649,7 +3852,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>25</v>
+      </c>
       <c r="B58" s="25">
         <v>25</v>
       </c>
@@ -2675,7 +3881,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="2:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>26</v>
+      </c>
       <c r="B59" s="25">
         <v>26</v>
       </c>
@@ -2696,7 +3905,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
       <c r="B60" s="28">
         <v>27</v>
       </c>
@@ -2722,7 +3934,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
       <c r="B61" s="28">
         <v>28</v>
       </c>
@@ -2743,7 +3958,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>29</v>
+      </c>
       <c r="B62" s="28">
         <v>19</v>
       </c>
@@ -2769,7 +3987,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30</v>
+      </c>
       <c r="B63" s="28">
         <v>20</v>
       </c>
@@ -2790,7 +4011,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="64" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
       <c r="B64" s="28">
         <v>29</v>
       </c>
@@ -2811,7 +4035,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="65" spans="2:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>32</v>
+      </c>
       <c r="B65" s="28">
         <v>30</v>
       </c>
@@ -2832,7 +4059,10 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
       <c r="B66" s="1">
         <v>31</v>
       </c>
@@ -2852,7 +4082,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
       <c r="B67" s="1">
         <v>32</v>
       </c>
@@ -2872,7 +4105,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>35</v>
+      </c>
       <c r="B68" s="1">
         <v>33</v>
       </c>
@@ -2892,7 +4128,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
       <c r="B69" s="1">
         <v>34</v>
       </c>
@@ -2912,7 +4151,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
       <c r="B70" s="1">
         <v>35</v>
       </c>
@@ -2932,7 +4174,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>38</v>
+      </c>
       <c r="B71" s="1">
         <v>36</v>
       </c>
@@ -3187,7 +4432,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>153</v>
       </c>
@@ -3201,7 +4446,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="13.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>151</v>
       </c>
@@ -3214,6 +4459,321 @@
       <c r="F17" t="s">
         <v>150</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="31">
+        <v>5</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="37">
+        <v>42664</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="37">
+        <v>42669</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="37">
+        <v>42670</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="31">
+        <f t="shared" ref="B7:B11" si="0">B6</f>
+        <v>4</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="31">
+        <v>0</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627" activeTab="2"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 5 Backlog" sheetId="4" r:id="rId3"/>
+    <sheet name="Sprint 6 Backlog" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="174">
   <si>
     <t>Product Name:</t>
   </si>
@@ -527,6 +528,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Created the interface for creating new robot parts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PB </t>
+  </si>
+  <si>
+    <t>Created the callback for storing the data entered for robot parts</t>
+  </si>
+  <si>
+    <t>Refactoring Code and related data</t>
+  </si>
+  <si>
+    <t>DOne</t>
+  </si>
+  <si>
+    <t>updated Scrum spreadhseet</t>
   </si>
 </sst>
 </file>
@@ -1407,6 +1426,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1423,6 +1447,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1439,6 +1468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1455,6 +1489,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1471,6 +1510,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1487,6 +1531,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1505,6 +1554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7956-4A34-A5D0-0C8BE2FA240A}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1838,6 +1892,580 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29982548275026261"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10774312569012416"/>
+          <c:y val="0.11561695365304149"/>
+          <c:w val="0.85463332525383107"/>
+          <c:h val="0.81347360798197621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-CC5C-41F9-B7F5-BB4202F35349}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 6 Backlog'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-CC5C-41F9-B7F5-BB4202F35349}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255088248"/>
+        <c:axId val="255089032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255088248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255089032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255089032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255088248"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1878,7 +2506,515 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2467,6 +3603,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst/>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2766,8 +3941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3398,6 +4573,12 @@
       </c>
       <c r="B38" s="1">
         <v>5</v>
+      </c>
+      <c r="C38" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -4474,7 +5655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -4783,4 +5964,314 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="31">
+        <v>6</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="37">
+        <v>42678</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="37">
+        <v>42683</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="37">
+        <v>42684</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="31">
+        <v>4</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="31">
+        <v>4</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="31">
+        <v>2</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="31">
+        <v>2</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="31">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="31">
+        <v>2</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="31">
+        <v>2</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="177">
   <si>
     <t>Product Name:</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>Sprint 8 Left</t>
-  </si>
-  <si>
-    <t>Note: Priority of unfinished Features is subject to change at the end of each sprint at the whim of the Product Owner</t>
-  </si>
-  <si>
-    <t>Additional features may be proposed by the student / team but must be approved by the Product Owner in writing</t>
   </si>
   <si>
     <t>Feature ID</t>
@@ -546,6 +540,21 @@
   </si>
   <si>
     <t>updated Scrum spreadhseet</t>
+  </si>
+  <si>
+    <t>Wrote SA Report Callback</t>
+  </si>
+  <si>
+    <t>Wrote SA Orders Callback</t>
+  </si>
+  <si>
+    <t>Wrote SA Bill Callback</t>
+  </si>
+  <si>
+    <t>Wrote Boss Orders Callback</t>
+  </si>
+  <si>
+    <t>Wrote Boss Profit Callback</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,13 +587,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -662,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,12 +681,18 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -694,6 +702,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -701,36 +727,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -743,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -859,7 +860,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.817575569617269E-2"/>
+          <c:y val="5.7716101647080076E-2"/>
+          <c:w val="0.91497119041530417"/>
+          <c:h val="0.87041295537417729"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
@@ -908,28 +919,28 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,16 +2192,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -3486,16 +3497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>88960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1418040</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1646640</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3939,17 +3950,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6328125"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="34"/>
+    <col min="3" max="3" width="10.90625" style="33"/>
     <col min="4" max="4" width="11"/>
     <col min="5" max="5" width="14.08984375" style="1"/>
     <col min="6" max="6" width="8.1796875"/>
@@ -3964,9 +3975,9 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="33"/>
+        <v>145</v>
+      </c>
+      <c r="C1" s="32"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
@@ -3980,7 +3991,7 @@
       <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
@@ -3990,7 +4001,7 @@
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="33"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -4002,9 +4013,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="33"/>
+        <v>146</v>
+      </c>
+      <c r="C4" s="32"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -4016,9 +4027,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="33"/>
+        <v>54</v>
+      </c>
+      <c r="C5" s="32"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
@@ -4032,7 +4043,7 @@
       <c r="B6" s="3">
         <v>1001236871</v>
       </c>
-      <c r="C6" s="33"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -4042,7 +4053,7 @@
     <row r="7" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -4054,7 +4065,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -4066,9 +4077,9 @@
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="33"/>
+        <v>152</v>
+      </c>
+      <c r="C9" s="32"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -4080,9 +4091,9 @@
         <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="33"/>
+        <v>153</v>
+      </c>
+      <c r="C10" s="32"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -4096,7 +4107,7 @@
       <c r="B11" s="3">
         <v>1001228675</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
@@ -4106,7 +4117,7 @@
     <row r="12" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
@@ -4118,9 +4129,9 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="33"/>
+        <v>154</v>
+      </c>
+      <c r="C13" s="32"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
@@ -4132,9 +4143,9 @@
         <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="33"/>
+        <v>155</v>
+      </c>
+      <c r="C14" s="32"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
@@ -4148,7 +4159,7 @@
       <c r="B15" s="3">
         <v>1001192846</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
@@ -4158,71 +4169,71 @@
     <row r="16" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C17" s="33"/>
+        <v>156</v>
+      </c>
+      <c r="C17" s="32"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="C18" s="32"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="3">
         <v>1001346251</v>
       </c>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="32">
-        <f>COUNT(B34:B149)</f>
+      <c r="B21" s="31">
+        <f>COUNT(B32:B145)</f>
         <v>36</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -4236,15 +4247,14 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" s="3">
-        <f t="shared" ref="B22:B29" si="0">B21</f>
-        <v>36</v>
-      </c>
-      <c r="C22" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="7">
@@ -4255,19 +4265,18 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C23" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" ref="D23:D28" si="1">D22+7</f>
+        <f t="shared" ref="D23:D28" si="0">D22+7</f>
         <v>42656</v>
       </c>
       <c r="E23" s="3"/>
@@ -4275,19 +4284,18 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="3">
+        <v>25</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="1"/>
         <v>42663</v>
       </c>
       <c r="E24" s="3"/>
@@ -4295,19 +4303,18 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="1"/>
         <v>42670</v>
       </c>
       <c r="E25" s="3"/>
@@ -4315,19 +4322,19 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="3">
+        <f t="shared" ref="B26:B29" si="1">B25</f>
+        <v>24</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="1"/>
         <v>42677</v>
       </c>
       <c r="E26" s="3"/>
@@ -4335,19 +4342,19 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7">
-        <f t="shared" si="1"/>
         <v>42684</v>
       </c>
       <c r="E27" s="3"/>
@@ -4355,19 +4362,19 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="1"/>
         <v>42691</v>
       </c>
       <c r="E28" s="3"/>
@@ -4375,15 +4382,15 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C29" s="34" t="s">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C29" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="7">
@@ -4394,988 +4401,974 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="2"/>
       <c r="E30" s="3"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3"/>
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="F31" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G31" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="9" t="s">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="G32" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>2</v>
+      </c>
+      <c r="B33" s="12">
+        <v>2</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>2</v>
-      </c>
-      <c r="B35" s="13">
-        <v>2</v>
-      </c>
-      <c r="C35" s="34" t="s">
+      <c r="G34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12">
+        <v>4</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>1</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>1</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3</v>
+      <c r="F35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>5</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4</v>
-      </c>
-      <c r="B37" s="13">
-        <v>4</v>
-      </c>
-      <c r="C37" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="12">
+        <v>6</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>1</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>1</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="13">
-        <v>5</v>
+      <c r="F37" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>7</v>
       </c>
       <c r="B38" s="1">
-        <v>5</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
-      <c r="B39" s="13">
-        <v>6</v>
-      </c>
-      <c r="C39" s="34" t="s">
+      <c r="G38" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>8</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>9</v>
+      </c>
+      <c r="B40" s="12">
+        <v>9</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="11">
         <v>1</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="12">
         <v>1</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>7</v>
-      </c>
-      <c r="B40" s="1">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>48</v>
+      <c r="F40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="13">
-        <v>8</v>
+      <c r="A41" s="1">
+        <v>10</v>
       </c>
       <c r="B41" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>9</v>
-      </c>
-      <c r="B42" s="13">
-        <v>9</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="12">
+        <v>54</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>11</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="13">
-        <v>1</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H42" s="14" t="s">
+      <c r="F42" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="14" t="s">
-        <v>55</v>
+      <c r="G42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
+        <v>12</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="1">
-        <v>10</v>
+      <c r="D43">
+        <v>6</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="13">
-        <v>11</v>
+        <v>50</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" s="10"/>
+    </row>
+    <row r="44" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>13</v>
       </c>
       <c r="B44" s="1">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1">
-        <v>1</v>
-      </c>
-      <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I44" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="14">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G44" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>12</v>
+      <c r="H44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>14</v>
       </c>
       <c r="B45" s="1">
-        <v>12</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" t="s">
-        <v>52</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="E45" s="15">
+        <v>2</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1">
-        <v>13</v>
-      </c>
-      <c r="C46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="E46" s="15">
+        <v>2</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>16</v>
+      </c>
+      <c r="B47" s="1">
+        <v>16</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="E47" s="15">
+        <v>2</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="17" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>17</v>
+      </c>
+      <c r="B48" s="15">
+        <v>23</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D48" s="17">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="17" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>18</v>
+      </c>
+      <c r="B49" s="15">
+        <v>24</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="17">
+        <v>6</v>
+      </c>
+      <c r="E49" s="21">
+        <v>2</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>19</v>
+      </c>
+      <c r="B50" s="24">
+        <v>17</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="E50" s="24">
         <v>3</v>
       </c>
-      <c r="E46" s="13">
+      <c r="F50" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>20</v>
+      </c>
+      <c r="B51" s="24">
+        <v>18</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="E51" s="24">
+        <v>3</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>23</v>
+      </c>
+      <c r="B52" s="1">
+        <v>21</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="23">
         <v>2</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13">
-        <v>14</v>
-      </c>
-      <c r="B47" s="1">
-        <v>14</v>
-      </c>
-      <c r="C47" s="34"/>
-      <c r="E47" s="16">
+      <c r="E52" s="12">
+        <v>3</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="1">
+        <v>22</v>
+      </c>
+      <c r="C53" s="33"/>
+      <c r="E53" s="24">
+        <v>3</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I53" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>25</v>
+      </c>
+      <c r="B54" s="24">
+        <v>25</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="23">
         <v>2</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1">
-        <v>15</v>
-      </c>
-      <c r="C48" s="34"/>
-      <c r="E48" s="16">
+      <c r="E54" s="12">
+        <v>3</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>26</v>
+      </c>
+      <c r="B55" s="24">
+        <v>26</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="E55" s="24">
+        <v>3</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I55" s="25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>27</v>
+      </c>
+      <c r="B56" s="27">
+        <v>27</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="26">
         <v>2</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I48" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="15" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>16</v>
-      </c>
-      <c r="B49" s="1">
-        <v>16</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="E49" s="16">
-        <v>2</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A50" s="13">
-        <v>17</v>
-      </c>
-      <c r="B50" s="16">
-        <v>23</v>
-      </c>
-      <c r="C50" s="34" t="s">
+      <c r="E56" s="12">
+        <v>4</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>28</v>
+      </c>
+      <c r="B57" s="27">
+        <v>28</v>
+      </c>
+      <c r="C57" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="18">
-        <v>2</v>
-      </c>
-      <c r="E50" s="19">
-        <v>2</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I50" s="21" t="s">
+      <c r="D57" s="26">
+        <v>6</v>
+      </c>
+      <c r="E57" s="27">
+        <v>4</v>
+      </c>
+      <c r="F57" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>18</v>
-      </c>
-      <c r="B51" s="16">
-        <v>24</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="E51" s="22">
-        <v>2</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="H51" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>29</v>
+      </c>
+      <c r="B58" s="27">
         <v>19</v>
       </c>
-      <c r="B52" s="25">
-        <v>17</v>
-      </c>
-      <c r="C52" s="34"/>
-      <c r="E52" s="25">
+      <c r="C58" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="26">
         <v>3</v>
       </c>
-      <c r="F52" s="24" t="s">
+      <c r="E58" s="12">
+        <v>4</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>30</v>
+      </c>
+      <c r="B59" s="27">
+        <v>20</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="26">
+        <v>6</v>
+      </c>
+      <c r="E59" s="27">
+        <v>4</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I59" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>31</v>
+      </c>
+      <c r="B60" s="27">
         <v>29</v>
       </c>
-      <c r="G52" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>20</v>
-      </c>
-      <c r="B53" s="25">
-        <v>18</v>
-      </c>
-      <c r="C53" s="34"/>
-      <c r="E53" s="25">
-        <v>3</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I53" s="26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>21</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>23</v>
-      </c>
-      <c r="B56" s="1">
-        <v>21</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="24">
-        <v>2</v>
-      </c>
-      <c r="E56" s="13">
-        <v>3</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>24</v>
-      </c>
-      <c r="B57" s="1">
-        <v>22</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="E57" s="25">
-        <v>3</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>25</v>
-      </c>
-      <c r="B58" s="25">
-        <v>25</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="24">
-        <v>2</v>
-      </c>
-      <c r="E58" s="13">
-        <v>3</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A59" s="13">
-        <v>26</v>
-      </c>
-      <c r="B59" s="25">
-        <v>26</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="E59" s="25">
-        <v>3</v>
-      </c>
-      <c r="F59" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="C60" s="33"/>
+      <c r="E60" s="27">
+        <v>4</v>
+      </c>
+      <c r="F60" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="28">
-        <v>27</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="27">
-        <v>2</v>
-      </c>
-      <c r="E60" s="13">
+      <c r="G60" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>32</v>
+      </c>
+      <c r="B61" s="27">
+        <v>30</v>
+      </c>
+      <c r="C61" s="33"/>
+      <c r="E61" s="27">
         <v>4</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>28</v>
-      </c>
-      <c r="B61" s="28">
-        <v>28</v>
-      </c>
-      <c r="C61" s="34"/>
-      <c r="E61" s="28">
-        <v>4</v>
-      </c>
-      <c r="F61" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H61" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I61" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="13">
-        <v>29</v>
-      </c>
-      <c r="B62" s="28">
-        <v>19</v>
-      </c>
-      <c r="C62" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="27">
-        <v>3</v>
-      </c>
-      <c r="E62" s="13">
-        <v>4</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="I61" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>33</v>
+      </c>
+      <c r="B62" s="1">
+        <v>31</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" t="s">
+        <v>50</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
-      </c>
-      <c r="B63" s="28">
-        <v>20</v>
-      </c>
-      <c r="C63" s="34"/>
-      <c r="E63" s="28">
-        <v>4</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H63" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="I63" s="29" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+        <v>34</v>
+      </c>
+      <c r="B63" s="1">
+        <v>32</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F63" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="28">
-        <v>29</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="E64" s="28">
-        <v>4</v>
-      </c>
-      <c r="F64" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="H64" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I64" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13">
-        <v>32</v>
-      </c>
-      <c r="B65" s="28">
-        <v>30</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="E65" s="28">
-        <v>4</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H65" s="29" t="s">
+      <c r="G63" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>35</v>
+      </c>
+      <c r="B64" s="1">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I65" s="29" t="s">
-        <v>110</v>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>36</v>
+      </c>
+      <c r="B65" s="1">
+        <v>34</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" t="s">
+        <v>50</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B66" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>52</v>
-      </c>
-      <c r="G66" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>34</v>
+        <v>41</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>38</v>
       </c>
       <c r="B67" s="1">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="H67" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="13">
-        <v>35</v>
-      </c>
-      <c r="B68" s="1">
-        <v>33</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F68" t="s">
-        <v>33</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>36</v>
-      </c>
-      <c r="B69" s="1">
-        <v>34</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F69" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>37</v>
-      </c>
-      <c r="B70" s="1">
-        <v>35</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F70" t="s">
-        <v>43</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="H70" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="I70" s="11" t="s">
+      <c r="H67" s="10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A71" s="13">
-        <v>38</v>
-      </c>
-      <c r="B71" s="1">
-        <v>36</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" t="s">
-        <v>56</v>
-      </c>
-      <c r="G71" s="11" t="s">
+      <c r="I67" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5411,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2">
         <v>4</v>
@@ -5419,16 +5412,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="37">
+        <v>130</v>
+      </c>
+      <c r="B2" s="36">
         <v>42664</v>
       </c>
       <c r="C2" s="2"/>
@@ -5439,9 +5432,9 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="37">
+        <v>131</v>
+      </c>
+      <c r="B3" s="36">
         <v>42669</v>
       </c>
       <c r="C3" s="2"/>
@@ -5452,9 +5445,9 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="37">
+        <v>132</v>
+      </c>
+      <c r="B4" s="36">
         <v>42670</v>
       </c>
       <c r="C4" s="2"/>
@@ -5465,7 +5458,7 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="30"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5474,9 +5467,9 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="31">
+        <v>133</v>
+      </c>
+      <c r="B6" s="30">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
@@ -5487,9 +5480,9 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="31">
+        <v>134</v>
+      </c>
+      <c r="B7" s="30">
         <f t="shared" ref="B7:B11" si="0">B6</f>
         <v>2</v>
       </c>
@@ -5501,9 +5494,9 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="31">
+        <v>135</v>
+      </c>
+      <c r="B8" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5515,9 +5508,9 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="31">
+        <v>136</v>
+      </c>
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5529,9 +5522,9 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="31">
+        <v>137</v>
+      </c>
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5543,9 +5536,9 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="31">
+        <v>138</v>
+      </c>
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5557,9 +5550,9 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="31">
+        <v>139</v>
+      </c>
+      <c r="B12" s="30">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
@@ -5570,9 +5563,9 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="31">
+        <v>140</v>
+      </c>
+      <c r="B13" s="30">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
@@ -5591,54 +5584,54 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>28</v>
+      <c r="G15" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5670,204 +5663,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="31">
+      <c r="A1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30">
         <v>5</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="36">
+        <v>42664</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="36">
+        <v>42669</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37">
-        <v>42664</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="B4" s="36">
+        <v>42670</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="37">
-        <v>42669</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="B6" s="30">
+        <v>4</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="37">
-        <v>42670</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="31">
-        <v>4</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <f t="shared" ref="B7:B11" si="0">B6</f>
         <v>4</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="A8" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="30">
         <v>2</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="A9" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="31">
+      <c r="A10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="31">
+      <c r="A11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="30">
+        <v>0</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="31">
-        <v>0</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="31">
-        <v>0</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>28</v>
+      <c r="G15" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5878,16 +5871,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -5896,22 +5889,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5919,19 +5912,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -5940,19 +5933,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -5968,10 +5961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5985,200 +5978,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="31">
+      <c r="A1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="30">
         <v>6</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="36">
+        <v>42678</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="36">
+        <v>42683</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37">
-        <v>42678</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="B4" s="36">
+        <v>42684</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="37">
-        <v>42683</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="B6" s="30">
+        <v>9</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="37">
-        <v>42684</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="B7" s="30">
+        <v>8</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B8" s="30">
+        <v>8</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="30">
+        <v>6</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="30">
         <v>4</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="31">
-        <v>4</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="31">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="30">
         <v>2</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="31">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="30">
         <v>2</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="31">
-        <v>2</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="31">
-        <v>2</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="B13" s="30">
+        <v>0</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B12" s="31">
-        <v>2</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="31">
-        <v>0</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>28</v>
+      <c r="G15" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6189,16 +6182,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -6207,19 +6200,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -6228,19 +6221,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -6249,22 +6242,119 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627" activeTab="3"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
   <si>
     <t>Product Name:</t>
   </si>
@@ -3952,8 +3952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4736,12 +4736,6 @@
       <c r="B43" s="1">
         <v>12</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <v>6</v>
-      </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
@@ -4893,12 +4887,7 @@
       <c r="B49" s="15">
         <v>24</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="D49" s="17">
-        <v>6</v>
-      </c>
+      <c r="C49" s="34"/>
       <c r="E49" s="21">
         <v>2</v>
       </c>
@@ -5105,12 +5094,7 @@
       <c r="B57" s="27">
         <v>28</v>
       </c>
-      <c r="C57" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" s="26">
-        <v>6</v>
-      </c>
+      <c r="C57" s="33"/>
       <c r="E57" s="27">
         <v>4</v>
       </c>
@@ -5163,12 +5147,7 @@
       <c r="B59" s="27">
         <v>20</v>
       </c>
-      <c r="C59" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="26">
-        <v>6</v>
-      </c>
+      <c r="C59" s="33"/>
       <c r="E59" s="27">
         <v>4</v>
       </c>
@@ -5963,7 +5942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="627"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint 4 Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 5 Backlog" sheetId="4" r:id="rId3"/>
     <sheet name="Sprint 6 Backlog" sheetId="6" r:id="rId4"/>
+    <sheet name="Sprint 7 Backlog" sheetId="7" r:id="rId5"/>
+    <sheet name="Sprint 8 Backlog" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="187">
   <si>
     <t>Product Name:</t>
   </si>
@@ -37,9 +39,6 @@
   </si>
   <si>
     <t>Student ID:</t>
-  </si>
-  <si>
-    <t>(Additional names for teams only)</t>
   </si>
   <si>
     <t>Total Features</t>
@@ -536,9 +535,6 @@
     <t>Refactoring Code and related data</t>
   </si>
   <si>
-    <t>DOne</t>
-  </si>
-  <si>
     <t>updated Scrum spreadhseet</t>
   </si>
   <si>
@@ -555,6 +551,42 @@
   </si>
   <si>
     <t>Wrote Boss Profit Callback</t>
+  </si>
+  <si>
+    <t>Catalog for Robots</t>
+  </si>
+  <si>
+    <t>View Robot Pictures</t>
+  </si>
+  <si>
+    <t>Create new Customer</t>
+  </si>
+  <si>
+    <t>Create new Sales Associate</t>
+  </si>
+  <si>
+    <t>View Customers</t>
+  </si>
+  <si>
+    <t>View Sales Associates</t>
+  </si>
+  <si>
+    <t>Create new Order</t>
+  </si>
+  <si>
+    <t>View My Sales Report</t>
+  </si>
+  <si>
+    <t>View Sales Report for all SA</t>
+  </si>
+  <si>
+    <t>View Customer Bill</t>
+  </si>
+  <si>
+    <t>View Customer's Orders</t>
+  </si>
+  <si>
+    <t>View All Orders of Shop</t>
   </si>
 </sst>
 </file>
@@ -652,11 +684,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,13 +712,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,9 +767,6 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -746,6 +774,31 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,27 +889,99 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Product Backlog Burn Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29602014182431347"/>
+          <c:y val="1.7921450423905805E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -865,10 +990,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.817575569617269E-2"/>
-          <c:y val="5.7716101647080076E-2"/>
-          <c:w val="0.91497119041530417"/>
-          <c:h val="0.87041295537417729"/>
+          <c:x val="8.6630455447585228E-2"/>
+          <c:y val="0.10072758266445399"/>
+          <c:w val="0.88112308083204072"/>
+          <c:h val="0.79155857350899173"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -877,27 +1002,707 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-9409-4493-857E-2E3C9DEA7D04}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-9409-4493-857E-2E3C9DEA7D04}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -911,7 +1716,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Product Backlog'!$B$21:$B$29</c:f>
+              <c:f>'Product Backlog'!$B$20:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -931,16 +1736,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -953,13 +1758,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088640"/>
         <c:axId val="255090992"/>
@@ -974,33 +1781,94 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Sprints</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="255090992"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
@@ -1013,48 +1881,67 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Features Remaining at Start of Sprint</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
         <c:crossAx val="255088640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -1062,10 +1949,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1074,12 +1960,26 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2477,6 +3377,1154 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29982548275026261"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10774312569012416"/>
+          <c:y val="0.11561695365304149"/>
+          <c:w val="0.85463332525383107"/>
+          <c:h val="0.81347360798197621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 7 Backlog'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255088248"/>
+        <c:axId val="255089032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255088248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255089032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255089032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255088248"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29982548275026261"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10774312569012416"/>
+          <c:y val="0.11561695365304149"/>
+          <c:w val="0.85463332525383107"/>
+          <c:h val="0.81347360798197621"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D083-4785-B1B6-C9C5FCC18AA8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 8 Backlog'!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-D083-4785-B1B6-C9C5FCC18AA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="255088248"/>
+        <c:axId val="255089032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255088248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255089032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="255089032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx2"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255088248"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2557,7 +4605,637 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3025,7 +5703,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3493,12 +6171,948 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>527050</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>88960</xdr:rowOff>
     </xdr:from>
@@ -3615,6 +7229,84 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst/>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>54360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst/>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3950,17 +7642,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.6328125"/>
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="33"/>
+    <col min="3" max="3" width="10.90625" style="29"/>
     <col min="4" max="4" width="11"/>
     <col min="5" max="5" width="14.08984375" style="1"/>
     <col min="6" max="6" width="8.1796875"/>
@@ -3971,13 +7663,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="32"/>
+      <c r="B1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="28"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
@@ -3985,13 +7677,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="36">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="2"/>
@@ -3999,9 +7691,9 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="28"/>
       <c r="D3" s="2"/>
       <c r="E3" s="3"/>
       <c r="F3" s="2"/>
@@ -4009,13 +7701,13 @@
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="32"/>
+      <c r="B4" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="28"/>
       <c r="D4" s="2"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
@@ -4023,13 +7715,13 @@
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="32"/>
+      <c r="B5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="28"/>
       <c r="D5" s="2"/>
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
@@ -4037,13 +7729,13 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="36">
         <v>1001236871</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="2"/>
       <c r="E6" s="3"/>
       <c r="F6" s="2"/>
@@ -4051,9 +7743,9 @@
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="2"/>
@@ -4061,11 +7753,13 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="28"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -4073,13 +7767,13 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="32"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2"/>
@@ -4087,13 +7781,13 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="32"/>
+      <c r="A10" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="36">
+        <v>1001228675</v>
+      </c>
+      <c r="C10" s="28"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2"/>
@@ -4101,13 +7795,9 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1001228675</v>
-      </c>
-      <c r="C11" s="32"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3"/>
       <c r="F11" s="2"/>
@@ -4115,9 +7805,13 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="28"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3"/>
       <c r="F12" s="2"/>
@@ -4125,13 +7819,13 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="32"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3"/>
       <c r="F13" s="2"/>
@@ -4139,13 +7833,13 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" s="32"/>
+      <c r="A14" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="36">
+        <v>1001192846</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="2"/>
@@ -4153,13 +7847,9 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1001192846</v>
-      </c>
-      <c r="C15" s="32"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3"/>
       <c r="F15" s="2"/>
@@ -4167,9 +7857,13 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
       <c r="F16" s="2"/>
@@ -4177,13 +7871,13 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="32"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
       <c r="F17" s="2"/>
@@ -4191,13 +7885,13 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="32"/>
+      <c r="A18" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="36">
+        <v>1001346251</v>
+      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
@@ -4205,13 +7899,9 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1001346251</v>
-      </c>
-      <c r="C19" s="32"/>
+      <c r="A19"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
       <c r="F19" s="2"/>
@@ -4219,28 +7909,36 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="36">
+        <f>COUNT(B31:B144)</f>
+        <v>36</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>7</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="31">
-        <f>COUNT(B32:B145)</f>
-        <v>36</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="38" t="s">
         <v>8</v>
+      </c>
+      <c r="B21" s="36">
+        <v>30</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="40">
+        <v>42649</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="2"/>
@@ -4248,17 +7946,18 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="36">
+        <v>26</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>30</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="7">
-        <v>42649</v>
+      <c r="D22" s="40">
+        <f t="shared" ref="D22:D27" si="0">D21+7</f>
+        <v>42656</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="2"/>
@@ -4266,18 +7965,18 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3">
-        <v>26</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="7">
-        <f t="shared" ref="D23:D28" si="0">D22+7</f>
-        <v>42656</v>
+      <c r="B23" s="36">
+        <v>25</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="0"/>
+        <v>42663</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="2"/>
@@ -4285,18 +7984,18 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3">
-        <v>25</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="36">
+        <v>24</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="40">
         <f t="shared" si="0"/>
-        <v>42663</v>
+        <v>42670</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="2"/>
@@ -4304,18 +8003,18 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="A25" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="36">
+        <v>23</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="40">
         <f t="shared" si="0"/>
-        <v>42670</v>
+        <v>42677</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="2"/>
@@ -4323,19 +8022,18 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" ref="B26:B29" si="1">B25</f>
-        <v>24</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="36">
+        <v>18</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="40">
         <f t="shared" si="0"/>
-        <v>42677</v>
+        <v>42684</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="2"/>
@@ -4343,19 +8041,18 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C27" s="33" t="s">
+      <c r="B27" s="36">
         <v>10</v>
       </c>
-      <c r="D27" s="7">
+      <c r="C27" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="40">
         <f t="shared" si="0"/>
-        <v>42684</v>
+        <v>42691</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="2"/>
@@ -4363,19 +8060,17 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="7">
-        <f t="shared" si="0"/>
-        <v>42691</v>
+      <c r="B28" s="36">
+        <v>0</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="40">
+        <v>42696</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="2"/>
@@ -4383,971 +8078,1019 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="7">
-        <v>42696</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="E30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>2</v>
+      </c>
+      <c r="B32" s="9">
+        <v>2</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="9">
+        <v>6</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B37" s="1">
+        <v>7</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>2</v>
-      </c>
-      <c r="B33" s="12">
-        <v>2</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="12">
-        <v>4</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="11">
-        <v>1</v>
-      </c>
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1">
-        <v>5</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I36" s="10" t="s">
+      <c r="F37" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
-      <c r="B37" s="12">
-        <v>6</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="12">
-        <v>1</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>7</v>
+      <c r="I37" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>8</v>
       </c>
       <c r="B38" s="1">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>8</v>
-      </c>
-      <c r="B39" s="1">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1">
+      <c r="H38" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>9</v>
+      </c>
+      <c r="B39" s="9">
+        <v>9</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8">
         <v>1</v>
       </c>
-      <c r="F39" t="s">
-        <v>41</v>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="12">
+      <c r="D40" s="8">
+        <v>7</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>11</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="11">
-        <v>1</v>
-      </c>
-      <c r="E40" s="12">
-        <v>1</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>10</v>
-      </c>
-      <c r="B41" s="1">
-        <v>10</v>
+      <c r="D41" s="8">
+        <v>7</v>
       </c>
       <c r="E41" s="1">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>57</v>
       </c>
+      <c r="H41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>11</v>
+      <c r="A42" s="1">
+        <v>12</v>
       </c>
       <c r="B42" s="1">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8">
+        <v>8</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-      <c r="F43" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
+      <c r="E43" s="9">
+        <v>2</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>61</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>13</v>
+        <v>62</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>14</v>
       </c>
       <c r="B44" s="1">
-        <v>13</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="14">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C44" s="29"/>
       <c r="E44" s="12">
         <v>2</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>14</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>15</v>
       </c>
       <c r="B45" s="1">
-        <v>14</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="E45" s="15">
+        <v>15</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="E45" s="12">
         <v>2</v>
       </c>
-      <c r="F45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I45" s="16" t="s">
+      <c r="F45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G45" s="13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1">
-        <v>15</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="E46" s="15">
+        <v>16</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="E46" s="12">
         <v>2</v>
       </c>
-      <c r="F46" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G46" s="16" t="s">
+      <c r="F46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>70</v>
+      <c r="I46" s="13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>16</v>
-      </c>
-      <c r="B47" s="1">
-        <v>16</v>
-      </c>
-      <c r="C47" s="33"/>
+      <c r="A47" s="9">
+        <v>17</v>
+      </c>
+      <c r="B47" s="12">
+        <v>23</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="14">
+        <v>2</v>
+      </c>
       <c r="E47" s="15">
         <v>2</v>
       </c>
-      <c r="F47" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="16" t="s">
+      <c r="F47" s="16" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="17" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>17</v>
-      </c>
-      <c r="B48" s="15">
-        <v>23</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="17">
-        <v>2</v>
+      <c r="G47" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>18</v>
+      </c>
+      <c r="B48" s="12">
+        <v>24</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="14">
+        <v>8</v>
       </c>
       <c r="E48" s="18">
         <v>2</v>
       </c>
-      <c r="F48" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="20" t="s">
+      <c r="F48" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="I48" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>19</v>
+      </c>
+      <c r="B49" s="21">
+        <v>17</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="E49" s="21">
+        <v>3</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>20</v>
+      </c>
+      <c r="B50" s="21">
+        <v>18</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="E50" s="21">
+        <v>3</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>23</v>
+      </c>
+      <c r="B51" s="1">
+        <v>21</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="20">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9">
+        <v>3</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>24</v>
+      </c>
+      <c r="B52" s="1">
+        <v>22</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="20">
+        <v>8</v>
+      </c>
+      <c r="E52" s="21">
+        <v>3</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>25</v>
+      </c>
+      <c r="B53" s="21">
+        <v>25</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20">
+        <v>2</v>
+      </c>
+      <c r="E53" s="9">
+        <v>3</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>26</v>
+      </c>
+      <c r="B54" s="21">
+        <v>26</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="20">
+        <v>8</v>
+      </c>
+      <c r="E54" s="21">
+        <v>3</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>27</v>
+      </c>
+      <c r="B55" s="24">
+        <v>27</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="23">
+        <v>2</v>
+      </c>
+      <c r="E55" s="9">
+        <v>4</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I55" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="I48" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="17" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>18</v>
-      </c>
-      <c r="B49" s="15">
-        <v>24</v>
-      </c>
-      <c r="C49" s="34"/>
-      <c r="E49" s="21">
-        <v>2</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="22" t="s">
+    </row>
+    <row r="56" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>28</v>
+      </c>
+      <c r="B56" s="24">
+        <v>28</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="23">
+        <v>8</v>
+      </c>
+      <c r="E56" s="24">
+        <v>4</v>
+      </c>
+      <c r="F56" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    </row>
+    <row r="57" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>29</v>
+      </c>
+      <c r="B57" s="24">
         <v>19</v>
       </c>
-      <c r="B50" s="24">
-        <v>17</v>
-      </c>
-      <c r="C50" s="33"/>
-      <c r="E50" s="24">
+      <c r="C57" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I50" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="E57" s="9">
+        <v>4</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>30</v>
+      </c>
+      <c r="B58" s="24">
         <v>20</v>
       </c>
-      <c r="B51" s="24">
-        <v>18</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="E51" s="24">
-        <v>3</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>23</v>
-      </c>
-      <c r="B52" s="1">
-        <v>21</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="23">
-        <v>2</v>
-      </c>
-      <c r="E52" s="12">
-        <v>3</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>24</v>
-      </c>
-      <c r="B53" s="1">
-        <v>22</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="E53" s="24">
-        <v>3</v>
-      </c>
-      <c r="F53" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G53" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>25</v>
-      </c>
-      <c r="B54" s="24">
-        <v>25</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="23">
-        <v>2</v>
-      </c>
-      <c r="E54" s="12">
-        <v>3</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="23" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A55" s="12">
+      <c r="C58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="23">
+        <v>8</v>
+      </c>
+      <c r="E58" s="24">
+        <v>4</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>31</v>
+      </c>
+      <c r="B59" s="24">
+        <v>29</v>
+      </c>
+      <c r="C59" s="29"/>
+      <c r="E59" s="24">
+        <v>4</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="24">
-        <v>26</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="E55" s="24">
-        <v>3</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="G55" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H55" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="I55" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>27</v>
-      </c>
-      <c r="B56" s="27">
-        <v>27</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="26">
-        <v>2</v>
-      </c>
-      <c r="E56" s="12">
+      <c r="G59" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>32</v>
+      </c>
+      <c r="B60" s="24">
+        <v>30</v>
+      </c>
+      <c r="C60" s="29"/>
+      <c r="E60" s="24">
         <v>4</v>
       </c>
-      <c r="F56" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>28</v>
-      </c>
-      <c r="B57" s="27">
-        <v>28</v>
-      </c>
-      <c r="C57" s="33"/>
-      <c r="E57" s="27">
-        <v>4</v>
-      </c>
-      <c r="F57" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="G57" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="I57" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12">
-        <v>29</v>
-      </c>
-      <c r="B58" s="27">
-        <v>19</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D58" s="26">
-        <v>3</v>
-      </c>
-      <c r="E58" s="12">
-        <v>4</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>30</v>
-      </c>
-      <c r="B59" s="27">
-        <v>20</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="E59" s="27">
-        <v>4</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="G59" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="F60" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>33</v>
+      </c>
+      <c r="B61" s="1">
         <v>31</v>
       </c>
-      <c r="B60" s="27">
-        <v>29</v>
-      </c>
-      <c r="C60" s="33"/>
-      <c r="E60" s="27">
-        <v>4</v>
-      </c>
-      <c r="F60" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="I60" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="12">
-        <v>32</v>
-      </c>
-      <c r="B61" s="27">
-        <v>30</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="E61" s="27">
-        <v>4</v>
-      </c>
-      <c r="F61" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="G61" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="I61" s="28" t="s">
+      <c r="C61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="23">
+        <v>8</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
+        <v>34</v>
+      </c>
+      <c r="B62" s="1">
+        <v>32</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>35</v>
+      </c>
+      <c r="B63" s="1">
         <v>33</v>
       </c>
-      <c r="B62" s="1">
-        <v>31</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="E63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>36</v>
+      </c>
+      <c r="B64" s="1">
         <v>34</v>
       </c>
-      <c r="B63" s="1">
-        <v>32</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="12">
-        <v>35</v>
-      </c>
-      <c r="B64" s="1">
-        <v>33</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>118</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1">
+        <v>35</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>38</v>
+      </c>
+      <c r="B66" s="1">
         <v>36</v>
       </c>
-      <c r="B65" s="1">
-        <v>34</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F65" t="s">
-        <v>50</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I65" s="10" t="s">
+      <c r="E66" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>37</v>
-      </c>
-      <c r="B66" s="1">
-        <v>35</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F66" t="s">
-        <v>41</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A67" s="12">
-        <v>38</v>
-      </c>
-      <c r="B67" s="1">
-        <v>36</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F67" t="s">
-        <v>54</v>
-      </c>
-      <c r="G67" s="10" t="s">
+      <c r="H66" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H67" s="10" t="s">
+      <c r="I66" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="I67" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +9126,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2">
         <v>4</v>
@@ -5391,16 +9134,16 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="36">
+        <v>129</v>
+      </c>
+      <c r="B2" s="32">
         <v>42664</v>
       </c>
       <c r="C2" s="2"/>
@@ -5411,9 +9154,9 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="36">
+        <v>130</v>
+      </c>
+      <c r="B3" s="32">
         <v>42669</v>
       </c>
       <c r="C3" s="2"/>
@@ -5424,9 +9167,9 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="36">
+        <v>131</v>
+      </c>
+      <c r="B4" s="32">
         <v>42670</v>
       </c>
       <c r="C4" s="2"/>
@@ -5437,7 +9180,7 @@
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="29"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -5446,9 +9189,9 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="30">
+        <v>132</v>
+      </c>
+      <c r="B6" s="27">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
@@ -5459,9 +9202,9 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="30">
+        <v>133</v>
+      </c>
+      <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
         <v>2</v>
       </c>
@@ -5473,9 +9216,9 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="30">
+        <v>134</v>
+      </c>
+      <c r="B8" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5487,9 +9230,9 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="30">
+        <v>135</v>
+      </c>
+      <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5501,9 +9244,9 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="30">
+        <v>136</v>
+      </c>
+      <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5515,9 +9258,9 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="30">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5529,9 +9272,9 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="30">
+        <v>138</v>
+      </c>
+      <c r="B12" s="27">
         <v>0</v>
       </c>
       <c r="C12" s="2"/>
@@ -5542,9 +9285,9 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="30">
+        <v>139</v>
+      </c>
+      <c r="B13" s="27">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
@@ -5563,54 +9306,54 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>26</v>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>150</v>
-      </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5642,204 +9385,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="30">
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="27">
         <v>5</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42664</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="36">
-        <v>42664</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="B3" s="32">
+        <v>42669</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="36">
-        <v>42669</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="32">
+        <v>42670</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="36">
-        <v>42670</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="B6" s="27">
+        <v>4</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="30">
-        <v>4</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="30">
+      <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
         <v>4</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="27">
+        <v>2</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="30">
-        <v>2</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="30">
+      <c r="A10" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B13" s="27">
         <v>0</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="30">
-        <v>0</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>26</v>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5850,16 +9593,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -5868,22 +9611,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5891,19 +9634,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -5912,19 +9655,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -5942,8 +9685,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="33">
+        <v>42678</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="33">
+        <v>42683</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="33">
+        <v>42684</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="3">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5957,200 +10109,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="30">
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="27">
+        <v>7</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42685</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="32">
+        <v>42690</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="32">
+        <v>42691</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="27">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="27">
+        <v>8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="27">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="27">
         <v>6</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" s="36">
-        <v>42678</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="36">
-        <v>42683</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="36">
-        <v>42684</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="30">
-        <v>9</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="30">
-        <v>8</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="30">
-        <v>8</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B10" s="27">
+        <v>4</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="30">
-        <v>4</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="30">
-        <v>2</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B12" s="30">
-        <v>2</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="30">
-        <v>0</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>26</v>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6158,19 +10310,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -6178,20 +10330,20 @@
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>165</v>
+      <c r="B17" s="1">
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -6199,20 +10351,20 @@
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>165</v>
+      <c r="B18" s="1">
+        <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -6220,18 +10372,20 @@
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1">
+        <v>11</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -6239,100 +10393,455 @@
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>172</v>
-      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22">
-        <v>28</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>30</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="27">
+        <v>8</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="32">
+        <v>42692</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="32">
+        <v>42695</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="32">
+        <v>42696</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="27">
+        <v>9</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="27">
+        <v>8</v>
+      </c>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="27">
+        <v>8</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A9" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="27">
+        <v>6</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="27">
+        <v>4</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="27">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A12" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="27">
+        <v>2</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A13" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="27">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="C23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686" activeTab="4"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="186">
   <si>
     <t>Product Name:</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Sprint 4 Left</t>
-  </si>
-  <si>
-    <t>Due</t>
   </si>
   <si>
     <t>Sprint 5 Left</t>
@@ -1721,7 +1718,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
@@ -1883,6 +1880,19 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1947,9 +1957,15 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1964,7 +1980,10 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3666,10 +3685,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>6</c:v>
@@ -7644,8 +7663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7667,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="2"/>
@@ -7705,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="2"/>
@@ -7719,7 +7738,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="2"/>
@@ -7757,7 +7776,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="2"/>
@@ -7771,7 +7790,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="2"/>
@@ -7809,7 +7828,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="2"/>
@@ -7823,7 +7842,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="2"/>
@@ -7861,7 +7880,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="2"/>
@@ -7875,7 +7894,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="2"/>
@@ -7913,8 +7932,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="36">
-        <f>COUNT(B31:B144)</f>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>6</v>
@@ -8004,7 +8022,7 @@
     </row>
     <row r="25" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="36">
         <v>23</v>
@@ -8023,7 +8041,7 @@
     </row>
     <row r="26" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="36">
         <v>18</v>
@@ -8042,7 +8060,7 @@
     </row>
     <row r="27" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="36">
         <v>10</v>
@@ -8061,13 +8079,13 @@
     </row>
     <row r="28" spans="1:9" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="36">
         <v>0</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="40">
         <v>42696</v>
@@ -8089,31 +8107,31 @@
     </row>
     <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -8133,16 +8151,16 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="I31" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8162,16 +8180,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>32</v>
-      </c>
       <c r="I32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="25" x14ac:dyDescent="0.25">
@@ -8191,16 +8209,16 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8220,16 +8238,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8249,16 +8267,16 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8278,16 +8296,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="25" x14ac:dyDescent="0.25">
@@ -8307,16 +8325,16 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -8336,16 +8354,16 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="I38" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -8365,16 +8383,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="I39" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8394,16 +8412,16 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8423,16 +8441,16 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="I41" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8452,13 +8470,13 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I42" s="7"/>
     </row>
@@ -8479,16 +8497,16 @@
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="I43" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8503,16 +8521,16 @@
         <v>2</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G44" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8527,16 +8545,16 @@
         <v>2</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G45" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="I45" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="11" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8551,16 +8569,16 @@
         <v>2</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G46" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8580,16 +8598,16 @@
         <v>2</v>
       </c>
       <c r="F47" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="H47" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="I47" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8609,16 +8627,16 @@
         <v>2</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="I48" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="H48" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8633,16 +8651,16 @@
         <v>3</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G49" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="H49" s="22" t="s">
+      <c r="I49" s="22" t="s">
         <v>79</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8657,16 +8675,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G50" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="22" t="s">
+      <c r="I50" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -8686,16 +8704,16 @@
         <v>3</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="I51" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8715,16 +8733,16 @@
         <v>3</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="I52" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="H52" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -8744,16 +8762,16 @@
         <v>3</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="I53" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
@@ -8773,16 +8791,16 @@
         <v>3</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="H54" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8802,16 +8820,16 @@
         <v>4</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G55" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>95</v>
-      </c>
       <c r="I55" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8831,16 +8849,16 @@
         <v>4</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8860,16 +8878,16 @@
         <v>4</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G57" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="I57" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="I57" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8889,16 +8907,16 @@
         <v>4</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G58" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" s="25" t="s">
         <v>100</v>
-      </c>
-      <c r="H58" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="I58" s="25" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8913,16 +8931,16 @@
         <v>4</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G59" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="H59" s="25" t="s">
+      <c r="I59" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="I59" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -8937,16 +8955,16 @@
         <v>4</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H60" s="25" t="s">
+      <c r="I60" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="I60" s="25" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -8963,19 +8981,19 @@
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="I61" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -8986,19 +9004,19 @@
         <v>32</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H62" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="I62" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9009,19 +9027,19 @@
         <v>33</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="I63" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9032,19 +9050,19 @@
         <v>34</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H64" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="I64" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -9055,19 +9073,19 @@
         <v>35</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="I65" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.25">
@@ -9078,19 +9096,19 @@
         <v>36</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G66" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="I66" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -9126,7 +9144,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2">
         <v>4</v>
@@ -9134,14 +9152,14 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="32">
         <v>42664</v>
@@ -9154,7 +9172,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="32">
         <v>42669</v>
@@ -9167,7 +9185,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="32">
         <v>42670</v>
@@ -9189,7 +9207,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
@@ -9202,7 +9220,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
@@ -9216,7 +9234,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="27">
         <f t="shared" si="0"/>
@@ -9230,7 +9248,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="27">
         <f t="shared" si="0"/>
@@ -9244,7 +9262,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <f t="shared" si="0"/>
@@ -9258,7 +9276,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="27">
         <f t="shared" si="0"/>
@@ -9272,7 +9290,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="27">
         <v>0</v>
@@ -9285,7 +9303,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -9307,53 +9325,53 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
         <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>148</v>
       </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>149</v>
-      </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -9386,7 +9404,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27">
         <v>5</v>
@@ -9399,7 +9417,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="32">
         <v>42664</v>
@@ -9412,7 +9430,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="32">
         <v>42669</v>
@@ -9425,7 +9443,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="32">
         <v>42670</v>
@@ -9447,7 +9465,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="27">
         <v>4</v>
@@ -9460,7 +9478,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
@@ -9474,7 +9492,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
@@ -9487,7 +9505,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="27">
         <f t="shared" si="0"/>
@@ -9501,7 +9519,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <f t="shared" si="0"/>
@@ -9515,7 +9533,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="27">
         <f t="shared" si="0"/>
@@ -9529,7 +9547,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="27">
         <v>0</v>
@@ -9542,7 +9560,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -9564,25 +9582,25 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9593,16 +9611,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9611,22 +9629,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9634,19 +9652,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -9655,19 +9673,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -9683,10 +9701,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9701,7 +9719,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3">
         <v>6</v>
@@ -9714,7 +9732,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="33">
         <v>42678</v>
@@ -9727,7 +9745,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="33">
         <v>42683</v>
@@ -9740,7 +9758,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="33">
         <v>42684</v>
@@ -9762,7 +9780,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -9775,7 +9793,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3">
         <v>8</v>
@@ -9788,7 +9806,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3">
         <v>8</v>
@@ -9801,7 +9819,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -9814,7 +9832,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
@@ -9827,7 +9845,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -9840,7 +9858,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -9853,7 +9871,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -9875,25 +9893,25 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -9904,16 +9922,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9922,19 +9940,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -9943,19 +9961,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -9964,19 +9982,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -9988,16 +10006,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10008,16 +10026,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10028,16 +10046,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10048,16 +10066,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10068,25 +10086,32 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10094,8 +10119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10110,7 +10135,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27">
         <v>7</v>
@@ -10123,7 +10148,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="32">
         <v>42685</v>
@@ -10136,7 +10161,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="32">
         <v>42690</v>
@@ -10149,7 +10174,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="32">
         <v>42691</v>
@@ -10171,10 +10196,10 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -10184,10 +10209,10 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -10197,10 +10222,10 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10210,7 +10235,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="27">
         <v>6</v>
@@ -10223,7 +10248,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <v>4</v>
@@ -10236,7 +10261,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
@@ -10249,7 +10274,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="27">
         <v>2</v>
@@ -10262,7 +10287,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -10284,25 +10309,25 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10313,16 +10338,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -10334,16 +10359,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -10355,16 +10380,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -10376,16 +10401,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -10393,56 +10418,62 @@
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>7</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>8</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>9</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -10456,10 +10487,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10474,7 +10505,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="27">
         <v>8</v>
@@ -10487,7 +10518,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="32">
         <v>42692</v>
@@ -10500,7 +10531,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="32">
         <v>42695</v>
@@ -10513,7 +10544,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="32">
         <v>42696</v>
@@ -10535,10 +10566,10 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -10548,7 +10579,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="27">
         <v>8</v>
@@ -10561,7 +10592,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="27">
         <v>8</v>
@@ -10574,7 +10605,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="27">
         <v>6</v>
@@ -10587,7 +10618,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="27">
         <v>4</v>
@@ -10600,7 +10631,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
@@ -10613,7 +10644,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="27">
         <v>2</v>
@@ -10626,7 +10657,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -10648,25 +10679,25 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -10677,16 +10708,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -10698,16 +10729,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -10719,16 +10750,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -10740,16 +10771,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -10761,16 +10792,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10781,16 +10812,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10801,16 +10832,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10821,27 +10852,56 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="F24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>10</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="193">
   <si>
     <t>Product Name:</t>
   </si>
@@ -584,6 +584,27 @@
   </si>
   <si>
     <t>View All Orders of Shop</t>
+  </si>
+  <si>
+    <t>Reading Data</t>
+  </si>
+  <si>
+    <t>Writing Data</t>
+  </si>
+  <si>
+    <t>View Product Managers</t>
+  </si>
+  <si>
+    <t>Create Product Manager</t>
+  </si>
+  <si>
+    <t>Updated Scrum Spreadhseet</t>
+  </si>
+  <si>
+    <t>Delete obsolete parts</t>
+  </si>
+  <si>
+    <t>Delete obsolete model</t>
   </si>
 </sst>
 </file>
@@ -1697,6 +1718,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -4259,22 +4287,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -7663,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -8516,7 +8544,12 @@
       <c r="B44" s="1">
         <v>14</v>
       </c>
-      <c r="C44" s="29"/>
+      <c r="C44" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="11">
+        <v>8</v>
+      </c>
       <c r="E44" s="12">
         <v>2</v>
       </c>
@@ -8540,7 +8573,12 @@
       <c r="B45" s="1">
         <v>15</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="11">
+        <v>8</v>
+      </c>
       <c r="E45" s="12">
         <v>2</v>
       </c>
@@ -8670,7 +8708,12 @@
       <c r="B50" s="21">
         <v>18</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="20">
+        <v>8</v>
+      </c>
       <c r="E50" s="21">
         <v>3</v>
       </c>
@@ -8688,8 +8731,8 @@
       </c>
     </row>
     <row r="51" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9">
-        <v>23</v>
+      <c r="A51" s="1">
+        <v>21</v>
       </c>
       <c r="B51" s="1">
         <v>21</v>
@@ -8718,7 +8761,7 @@
     </row>
     <row r="52" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1">
         <v>22</v>
@@ -8746,8 +8789,8 @@
       </c>
     </row>
     <row r="53" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>25</v>
+      <c r="A53" s="9">
+        <v>23</v>
       </c>
       <c r="B53" s="21">
         <v>25</v>
@@ -8775,8 +8818,8 @@
       </c>
     </row>
     <row r="54" spans="1:9" s="20" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
-        <v>26</v>
+      <c r="A54" s="1">
+        <v>24</v>
       </c>
       <c r="B54" s="21">
         <v>26</v>
@@ -8805,7 +8848,7 @@
     </row>
     <row r="55" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B55" s="24">
         <v>27</v>
@@ -8833,8 +8876,8 @@
       </c>
     </row>
     <row r="56" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>28</v>
+      <c r="A56" s="9">
+        <v>26</v>
       </c>
       <c r="B56" s="24">
         <v>28</v>
@@ -8862,8 +8905,8 @@
       </c>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
-        <v>29</v>
+      <c r="A57" s="1">
+        <v>27</v>
       </c>
       <c r="B57" s="24">
         <v>19</v>
@@ -8892,7 +8935,7 @@
     </row>
     <row r="58" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58" s="24">
         <v>20</v>
@@ -8920,8 +8963,8 @@
       </c>
     </row>
     <row r="59" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>31</v>
+      <c r="A59" s="9">
+        <v>29</v>
       </c>
       <c r="B59" s="24">
         <v>29</v>
@@ -8944,8 +8987,8 @@
       </c>
     </row>
     <row r="60" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
-        <v>32</v>
+      <c r="A60" s="1">
+        <v>30</v>
       </c>
       <c r="B60" s="24">
         <v>30</v>
@@ -8969,7 +9012,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1">
         <v>31</v>
@@ -8997,12 +9040,18 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>34</v>
+      <c r="A62" s="9">
+        <v>32</v>
       </c>
       <c r="B62" s="1">
         <v>32</v>
       </c>
+      <c r="C62" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="23">
+        <v>8</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>107</v>
       </c>
@@ -9020,12 +9069,18 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>35</v>
+      <c r="A63" s="1">
+        <v>33</v>
       </c>
       <c r="B63" s="1">
         <v>33</v>
       </c>
+      <c r="C63" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="23">
+        <v>8</v>
+      </c>
       <c r="E63" s="1" t="s">
         <v>107</v>
       </c>
@@ -9044,7 +9099,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" s="1">
         <v>34</v>
@@ -9066,8 +9121,8 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>37</v>
+      <c r="A65" s="9">
+        <v>35</v>
       </c>
       <c r="B65" s="1">
         <v>35</v>
@@ -9089,8 +9144,8 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="25" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
-        <v>38</v>
+      <c r="A66" s="1">
+        <v>36</v>
       </c>
       <c r="B66" s="1">
         <v>36</v>
@@ -10120,7 +10175,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10487,10 +10542,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10569,7 +10624,7 @@
         <v>131</v>
       </c>
       <c r="B6" s="27">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -10582,7 +10637,7 @@
         <v>132</v>
       </c>
       <c r="B7" s="27">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -10595,7 +10650,7 @@
         <v>133</v>
       </c>
       <c r="B8" s="27">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10608,7 +10663,7 @@
         <v>134</v>
       </c>
       <c r="B9" s="27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -10621,7 +10676,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -10634,7 +10689,7 @@
         <v>136</v>
       </c>
       <c r="B11" s="27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -10647,7 +10702,7 @@
         <v>137</v>
       </c>
       <c r="B12" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -10868,17 +10923,17 @@
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>163</v>
+      <c r="B24" s="1">
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>146</v>
@@ -10888,28 +10943,181 @@
       <c r="A25" s="1">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>163</v>
+      <c r="B25" s="1">
+        <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>146</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
+        <v>33</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>15</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>16</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="194">
   <si>
     <t>Product Name:</t>
   </si>
@@ -409,9 +409,6 @@
 (Probably can't address until Homework #6)</t>
   </si>
   <si>
-    <t>*** Example Only – Set up a tab for EACH SPRINT ***</t>
-  </si>
-  <si>
     <t>Start on</t>
   </si>
   <si>
@@ -605,6 +602,12 @@
   </si>
   <si>
     <t>Delete obsolete model</t>
+  </si>
+  <si>
+    <t>Logi-in User Feature</t>
+  </si>
+  <si>
+    <t>Refactored Main Window for Log in Screen</t>
   </si>
 </sst>
 </file>
@@ -2040,58 +2043,664 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1300">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
+              <a:rPr lang="en-US"/>
               <a:t>Sprint Burn Chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42434838502330069"/>
+          <c:y val="3.6585365853658534E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.3375196232339092E-2"/>
+          <c:y val="1.2195121951219513E-2"/>
+          <c:w val="0.91208791208791207"/>
+          <c:h val="0.85365853658536583"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28800">
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586"/>
+                <a:schemeClr val="lt1"/>
               </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
               <a:ln>
                 <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-9C2A-4E80-8ECB-2BD9990D6CBA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -2119,10 +2728,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2141,13 +2750,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088248"/>
         <c:axId val="255089032"/>
@@ -2162,33 +2773,94 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Tasks</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="255089032"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
@@ -2201,48 +2873,80 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="900">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Days</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
         <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -2251,9 +2955,10 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2262,12 +2967,29 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2297,10 +3019,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2334,10 +3070,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2357,7 +3107,7 @@
           <c:x val="0.10774312569012416"/>
           <c:y val="0.11561695365304149"/>
           <c:w val="0.85463332525383107"/>
-          <c:h val="0.81347360798197621"/>
+          <c:h val="0.75876217600459528"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2367,18 +3117,41 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2393,13 +3166,26 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2414,13 +3200,26 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2435,13 +3234,26 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2456,13 +3268,26 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2477,13 +3302,26 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2498,14 +3336,26 @@
           <c:dPt>
             <c:idx val="6"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -2519,34 +3369,298 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-7956-4A34-A5D0-0C8BE2FA240A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -2596,13 +3710,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088248"/>
         <c:axId val="255089032"/>
@@ -2621,9 +3737,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2650,9 +3769,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2663,14 +3785,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -2684,9 +3806,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -2708,18 +3833,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2731,9 +3855,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2760,9 +3887,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2777,30 +3907,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -2819,11 +3925,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2871,10 +3977,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2908,10 +4028,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2928,10 +4062,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10774312569012416"/>
-          <c:y val="0.11561695365304149"/>
+          <c:x val="5.9155414539092108E-2"/>
+          <c:y val="0.11561679790026248"/>
           <c:w val="0.85463332525383107"/>
-          <c:h val="0.81347360798197621"/>
+          <c:h val="0.71228299587551558"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2941,18 +4075,41 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2967,13 +4124,26 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -2988,13 +4158,26 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3009,13 +4192,26 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3030,13 +4226,26 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3051,13 +4260,26 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3072,14 +4294,26 @@
           <c:dPt>
             <c:idx val="6"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -3093,34 +4327,298 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-CC5C-41F9-B7F5-BB4202F35349}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3170,13 +4668,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088248"/>
         <c:axId val="255089032"/>
@@ -3195,9 +4695,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3224,9 +4727,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3237,14 +4743,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3258,9 +4764,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3282,18 +4791,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3305,9 +4813,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3334,9 +4845,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3351,30 +4865,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -3393,14 +4883,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3445,10 +4932,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -3482,10 +4983,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -3502,10 +5017,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10774312569012416"/>
+          <c:x val="8.0380544558455197E-2"/>
           <c:y val="0.11561695365304149"/>
-          <c:w val="0.85463332525383107"/>
-          <c:h val="0.81347360798197621"/>
+          <c:w val="0.88199590638549985"/>
+          <c:h val="0.71378493359971795"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3515,18 +5030,41 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3541,13 +5079,26 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3562,13 +5113,26 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3583,13 +5147,26 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3604,13 +5181,26 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3625,13 +5215,26 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -3646,14 +5249,26 @@
           <c:dPt>
             <c:idx val="6"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -3667,34 +5282,298 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0B34-42AD-9E51-B2AEF45CE9AA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -3728,7 +5607,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3744,13 +5623,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088248"/>
         <c:axId val="255089032"/>
@@ -3769,9 +5650,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3798,9 +5682,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3811,14 +5698,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3832,9 +5719,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -3856,18 +5746,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -3879,9 +5768,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3908,9 +5800,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3925,30 +5820,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -3956,7 +5827,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -3967,11 +5840,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4019,10 +5892,24 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -4056,10 +5943,24 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="0" baseline="0">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="85000"/>
+                      <a:lumOff val="15000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -4076,10 +5977,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10774312569012416"/>
-          <c:y val="0.11561695365304149"/>
-          <c:w val="0.85463332525383107"/>
-          <c:h val="0.81347360798197621"/>
+          <c:x val="9.8180330502178573E-2"/>
+          <c:y val="0.10968200191593259"/>
+          <c:w val="0.81000742927132907"/>
+          <c:h val="0.7422570620808896"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -4089,18 +5990,41 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dPt>
             <c:idx val="0"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4115,13 +6039,26 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4136,13 +6073,26 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent3">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4157,13 +6107,26 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4178,13 +6141,26 @@
           <c:dPt>
             <c:idx val="4"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4199,13 +6175,26 @@
           <c:dPt>
             <c:idx val="5"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
@@ -4220,14 +6209,26 @@
           <c:dPt>
             <c:idx val="6"/>
             <c:marker>
-              <c:symbol val="none"/>
+              <c:symbol val="circle"/>
+              <c:size val="17"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:ln w="31750" cap="rnd">
+              <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
                 <a:solidFill>
                   <a:schemeClr val="accent1">
                     <a:lumMod val="60000"/>
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:round/>
@@ -4241,34 +6242,298 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
                 <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx2"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D083-4785-B1B6-C9C5FCC18AA8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
@@ -4290,19 +6555,19 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4318,13 +6583,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="255088248"/>
         <c:axId val="255089032"/>
@@ -4343,9 +6610,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4372,9 +6642,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4385,14 +6658,14 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -4406,9 +6679,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -4430,18 +6706,17 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx2">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -4453,9 +6728,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4469,6 +6747,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.7664397727044566E-2"/>
+              <c:y val="0.42905955746629598"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="1"/>
           <c:spPr>
             <a:noFill/>
@@ -4482,9 +6768,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4499,30 +6788,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="255088248"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
@@ -4530,7 +6795,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -4541,11 +6808,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx2">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4772,6 +7039,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
@@ -5283,27 +7590,33 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5311,22 +7624,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5341,28 +7654,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5374,37 +7688,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5412,38 +7739,32 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -5452,12 +7773,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5476,15 +7800,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5495,17 +7819,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5514,16 +7837,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -5532,7 +7855,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5540,17 +7863,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -5559,12 +7881,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -5577,17 +7899,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -5596,12 +7917,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -5614,7 +7935,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -5623,7 +7947,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -5631,7 +7955,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -5639,12 +7963,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5659,17 +7986,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -5678,9 +8004,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5689,14 +8033,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5705,7 +8048,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -5714,7 +8060,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5722,9 +8068,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5735,7 +8081,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -5744,34 +8093,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5779,22 +8134,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5809,28 +8164,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5842,37 +8198,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -5880,38 +8249,32 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -5920,12 +8283,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5944,15 +8310,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -5963,17 +8329,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -5982,16 +8347,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6000,7 +8365,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6008,17 +8373,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -6027,12 +8391,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -6045,17 +8409,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6064,12 +8427,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -6082,7 +8445,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -6091,7 +8457,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -6099,7 +8465,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6107,12 +8473,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6127,17 +8496,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6146,9 +8514,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6157,14 +8543,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6173,7 +8558,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6182,7 +8570,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6190,9 +8578,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6203,7 +8591,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6212,34 +8603,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6247,22 +8644,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6277,28 +8674,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6310,37 +8708,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6348,38 +8759,32 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -6388,12 +8793,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6412,15 +8820,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6431,17 +8839,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6450,16 +8857,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6468,7 +8875,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6476,17 +8883,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -6495,12 +8901,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -6513,17 +8919,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6532,12 +8937,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -6550,7 +8955,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -6559,7 +8967,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -6567,7 +8975,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6575,12 +8983,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6595,17 +9006,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6614,9 +9024,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6625,14 +9053,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6641,7 +9068,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6650,7 +9080,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6658,9 +9088,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6671,7 +9101,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -6680,34 +9113,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6715,22 +9154,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6745,28 +9184,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9575">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6778,37 +9218,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -6816,38 +9269,32 @@
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointWireframe>
@@ -6856,12 +9303,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6880,15 +9330,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6899,17 +9349,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6918,16 +9367,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6936,7 +9385,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -6944,17 +9393,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -6963,12 +9411,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -6981,17 +9429,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -7000,12 +9447,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -7018,7 +9465,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -7027,7 +9477,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -7035,7 +9485,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -7043,12 +9493,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -7063,17 +9516,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7082,9 +9534,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7093,14 +9563,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7109,7 +9578,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -7118,7 +9590,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7126,20 +9598,533 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="234">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9575">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+            <a:satMod val="105000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1440" b="0" kern="1200" cap="all" spc="0" baseline="0">
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="50000"/>
+              <a:lumOff val="50000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:upBar>
   <cs:valueAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -7148,7 +10133,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -7199,16 +10184,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7247,9 +10232,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7286,9 +10271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7325,9 +10310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7364,9 +10349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7691,8 +10676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7714,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="2"/>
@@ -7752,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="2"/>
@@ -7804,7 +10789,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="2"/>
@@ -7818,7 +10803,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="2"/>
@@ -7856,7 +10841,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="2"/>
@@ -7870,7 +10855,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="2"/>
@@ -7908,7 +10893,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="2"/>
@@ -7922,7 +10907,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="2"/>
@@ -8684,7 +11669,12 @@
       <c r="B49" s="21">
         <v>17</v>
       </c>
-      <c r="C49" s="29"/>
+      <c r="C49" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="20">
+        <v>8</v>
+      </c>
       <c r="E49" s="21">
         <v>3</v>
       </c>
@@ -8708,12 +11698,7 @@
       <c r="B50" s="21">
         <v>18</v>
       </c>
-      <c r="C50" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="20">
-        <v>8</v>
-      </c>
+      <c r="C50" s="29"/>
       <c r="E50" s="21">
         <v>3</v>
       </c>
@@ -9182,7 +12167,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9206,15 +12191,13 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="32">
         <v>42664</v>
@@ -9227,7 +12210,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="32">
         <v>42669</v>
@@ -9240,7 +12223,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="32">
         <v>42670</v>
@@ -9262,7 +12245,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27">
         <v>2</v>
@@ -9275,7 +12258,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
@@ -9289,7 +12272,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27">
         <f t="shared" si="0"/>
@@ -9303,7 +12286,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="27">
         <f t="shared" si="0"/>
@@ -9317,11 +12300,10 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9331,11 +12313,10 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9345,7 +12326,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="27">
         <v>0</v>
@@ -9358,7 +12339,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -9380,19 +12361,19 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>6</v>
@@ -9402,31 +12383,43 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="A16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
+      <c r="F17" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -9444,7 +12437,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9472,7 +12465,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="32">
         <v>42664</v>
@@ -9485,7 +12478,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="32">
         <v>42669</v>
@@ -9498,7 +12491,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="32">
         <v>42670</v>
@@ -9520,7 +12513,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27">
         <v>4</v>
@@ -9533,7 +12526,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="27">
         <f t="shared" ref="B7:B11" si="0">B6</f>
@@ -9547,7 +12540,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
@@ -9560,7 +12553,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="27">
         <f t="shared" si="0"/>
@@ -9574,7 +12567,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
         <f t="shared" si="0"/>
@@ -9588,7 +12581,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
         <f t="shared" si="0"/>
@@ -9602,7 +12595,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="27">
         <v>0</v>
@@ -9615,7 +12608,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -9637,19 +12630,19 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -9666,16 +12659,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9684,22 +12677,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -9707,19 +12700,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -9728,19 +12721,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -9758,8 +12751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -9787,7 +12780,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="33">
         <v>42678</v>
@@ -9800,7 +12793,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="33">
         <v>42683</v>
@@ -9813,7 +12806,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="33">
         <v>42684</v>
@@ -9835,7 +12828,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="3">
         <v>9</v>
@@ -9848,7 +12841,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="3">
         <v>8</v>
@@ -9861,7 +12854,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3">
         <v>8</v>
@@ -9874,7 +12867,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3">
         <v>6</v>
@@ -9887,7 +12880,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3">
         <v>4</v>
@@ -9900,7 +12893,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3">
         <v>2</v>
@@ -9913,7 +12906,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3">
         <v>2</v>
@@ -9926,7 +12919,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -9948,19 +12941,19 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -9977,16 +12970,16 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -9995,19 +12988,19 @@
         <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -10016,19 +13009,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -10037,19 +13030,19 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -10061,16 +13054,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10081,16 +13074,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10101,16 +13094,16 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10121,16 +13114,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10141,16 +13134,16 @@
         <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10175,7 +13168,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10203,7 +13196,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="32">
         <v>42685</v>
@@ -10216,7 +13209,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="32">
         <v>42690</v>
@@ -10229,7 +13222,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="32">
         <v>42691</v>
@@ -10251,7 +13244,7 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27">
         <v>6</v>
@@ -10264,7 +13257,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="27">
         <v>6</v>
@@ -10277,7 +13270,7 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27">
         <v>6</v>
@@ -10290,7 +13283,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="27">
         <v>6</v>
@@ -10303,7 +13296,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
         <v>4</v>
@@ -10316,7 +13309,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
         <v>2</v>
@@ -10329,10 +13322,10 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -10342,7 +13335,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -10364,19 +13357,19 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -10393,16 +13386,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -10414,16 +13407,16 @@
         <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -10435,16 +13428,16 @@
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -10456,16 +13449,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -10474,19 +13467,19 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10494,19 +13487,19 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10544,8 +13537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -10573,7 +13566,7 @@
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="32">
         <v>42692</v>
@@ -10586,7 +13579,7 @@
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="32">
         <v>42695</v>
@@ -10599,7 +13592,7 @@
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="32">
         <v>42696</v>
@@ -10621,10 +13614,10 @@
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="27">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -10634,7 +13627,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="27">
         <v>16</v>
@@ -10647,10 +13640,10 @@
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="27">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -10660,10 +13653,10 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -10673,10 +13666,10 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -10686,7 +13679,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="27">
         <v>4</v>
@@ -10699,10 +13692,10 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -10712,7 +13705,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="27">
         <v>0</v>
@@ -10734,19 +13727,19 @@
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>6</v>
@@ -10763,16 +13756,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -10784,16 +13777,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -10805,16 +13798,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="1"/>
     </row>
@@ -10826,16 +13819,16 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G19" s="1"/>
     </row>
@@ -10847,16 +13840,16 @@
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10867,16 +13860,16 @@
         <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10887,16 +13880,16 @@
         <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10907,16 +13900,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10927,16 +13920,16 @@
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10947,16 +13940,16 @@
         <v>15</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10964,19 +13957,19 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -10984,19 +13977,19 @@
         <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11007,16 +14000,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11027,16 +14020,16 @@
         <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,19 +14037,19 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11064,36 +14057,60 @@
         <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="1">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="A33" s="1">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="195">
   <si>
     <t>Product Name:</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>Refactored Main Window for Log in Screen</t>
+  </si>
+  <si>
+    <t>Copy and Paste Data Fields</t>
   </si>
 </sst>
 </file>
@@ -2698,6 +2701,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -3658,6 +3668,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -4616,6 +4633,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -5571,6 +5595,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -6531,6 +6562,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -6547,29 +6585,23 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 8 Backlog'!$B$7:$B$13</c:f>
+              <c:f>'Sprint 8 Backlog'!$B$7:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10676,8 +10708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A47" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11698,7 +11730,12 @@
       <c r="B50" s="21">
         <v>18</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="20">
+        <v>8</v>
+      </c>
       <c r="E50" s="21">
         <v>3</v>
       </c>
@@ -12261,7 +12298,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="27">
-        <f t="shared" ref="B7:B11" si="0">B6</f>
+        <f t="shared" ref="B7:B9" si="0">B6</f>
         <v>2</v>
       </c>
       <c r="C7" s="2"/>
@@ -13537,8 +13574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13617,7 +13654,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -13630,7 +13667,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="27">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -13643,7 +13680,7 @@
         <v>132</v>
       </c>
       <c r="B8" s="27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -13656,7 +13693,7 @@
         <v>133</v>
       </c>
       <c r="B9" s="27">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -13669,7 +13706,7 @@
         <v>134</v>
       </c>
       <c r="B10" s="27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -13682,7 +13719,7 @@
         <v>135</v>
       </c>
       <c r="B11" s="27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -13691,12 +13728,8 @@
       <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="27">
-        <v>2</v>
-      </c>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
@@ -13704,12 +13737,8 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="27">
-        <v>0</v>
-      </c>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -14113,12 +14142,24 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="A34" s="1">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1">
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="196">
   <si>
     <t>Product Name:</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>Copy and Paste Data Fields</t>
+  </si>
+  <si>
+    <t>Undo Feature</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -823,6 +826,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6590,7 +6596,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -10708,8 +10714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A48" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11991,7 +11997,12 @@
       <c r="B59" s="24">
         <v>29</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C59" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="23">
+        <v>8</v>
+      </c>
       <c r="E59" s="24">
         <v>4</v>
       </c>
@@ -13575,7 +13586,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13654,7 +13665,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -13667,7 +13678,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -13755,419 +13766,447 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="42" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="38">
         <v>1</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="38">
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="38">
         <v>2</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="38">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="38">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="38">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="38">
         <v>4</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="38">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="38">
         <v>5</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="38">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="38">
         <v>6</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="38">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G21" s="38"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="38">
         <v>7</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="38">
         <v>26</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G22" s="38"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="38">
         <v>8</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="38">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G23" s="38"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="38">
         <v>9</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="38">
         <v>14</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="38">
         <v>10</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="38">
         <v>15</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="38">
         <v>11</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="38">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G27" s="38"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="38">
         <v>13</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="38">
         <v>32</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G28" s="38"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="38">
         <v>14</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="38">
         <v>33</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G29" s="38"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="38">
         <v>15</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G30" s="38"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="38">
         <v>16</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="38" t="s">
         <v>145</v>
       </c>
+      <c r="G31" s="38"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="38">
         <v>17</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="38">
         <v>19</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
         <v>18</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="38">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="38">
         <v>19</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="38">
         <v>20</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="38" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="38">
+        <v>20</v>
+      </c>
+      <c r="B35" s="38">
+        <v>29</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Robbie_Robot_Shop_Scrum.xlsx
+++ b/Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686" activeTab="5"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="686"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="197">
   <si>
     <t>Product Name:</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>Undo Feature</t>
+  </si>
+  <si>
+    <t>Save As Feature</t>
   </si>
 </sst>
 </file>
@@ -729,7 +732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -827,6 +830,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1779,7 +1785,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -6596,7 +6602,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>16</c:v>
@@ -10714,8 +10720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -11114,7 +11120,7 @@
         <v>15</v>
       </c>
       <c r="B27" s="36">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>9</v>
@@ -11625,7 +11631,12 @@
       <c r="B46" s="1">
         <v>16</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="11">
+        <v>8</v>
+      </c>
       <c r="E46" s="12">
         <v>2</v>
       </c>
@@ -13583,10 +13594,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -13665,7 +13676,7 @@
         <v>130</v>
       </c>
       <c r="B6" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -13678,7 +13689,7 @@
         <v>131</v>
       </c>
       <c r="B7" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -14207,6 +14218,27 @@
         <v>145</v>
       </c>
       <c r="G35" s="38"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="43">
+        <v>21</v>
+      </c>
+      <c r="B36" s="43">
+        <v>16</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
